--- a/biology/Médecine/Lutzomyia/Lutzomyia.xlsx
+++ b/biology/Médecine/Lutzomyia/Lutzomyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lutzomyia est un genre de diptères nématocères de la famille des Psychodidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Vecteur infectieux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre de diptères est vecteur de plusieurs maladies comme la leishmaniose (Lutzomyia longipalpis transmet des parasites du genre Leishmania) ou la bartonellose (Lutzomyia verrucarum transmet la bactérie Bartonella bacilliformis). Les maladies incubent généralement dans le sang de certains mammifères comme les rongeurs, les chiens mais aussi les chauves-souris, dont les représentants de Lutzomyia apprécient particulièrement l'habitat. Les femelles de l'insecte se nourrissent alors du sang infecté puis le transmettent selon leur cycle de digestion.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles pondent quelques centaines d'œufs dans des endroits sombres et humides, comme sous un rocher ou sous l'humus. Après l'éclosion, les œufs mettent 2 ou 3 mois pour atteindre l'âge adulte, en passant par 3 stades de développement.
 </t>
@@ -573,9 +589,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce fossile Lutzomyia adiketis a été découverte dans un gisement d'ambre dominicaine de l'île Hispaniola. Datant du Burdigalien (entre 15 et 20 millions d'années), cette espèce transmettait le Paleoleishmania neotropicum[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce fossile Lutzomyia adiketis a été découverte dans un gisement d'ambre dominicaine de l'île Hispaniola. Datant du Burdigalien (entre 15 et 20 millions d'années), cette espèce transmettait le Paleoleishmania neotropicum.
 </t>
         </is>
       </c>
@@ -604,13 +622,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Lutzomyia França, 1924[2].
-Synonymes
-Lutzomyia a pour synonymes[2] :
-Fransaia Dyar &amp; Nuñez Tovar, 1927
-Lutziola Strand, 1932</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Lutzomyia França, 1924.
+</t>
         </is>
       </c>
     </row>
@@ -635,12 +652,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lutzomyia a pour synonymes :
+Fransaia Dyar &amp; Nuñez Tovar, 1927
+Lutziola Strand, 1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lutzomyia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lutzomyia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon la base GBIF       (30 octobre 2023)[2], le genre Lutzomyia compte au moins les 109 espèces suivantes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base GBIF       (30 octobre 2023), le genre Lutzomyia compte au moins les 109 espèces suivantes :
 Lutzomyia adamsi Fernández, Galati &amp; Carbajal, 1998
 † Lutzomyia adiketis Poinar, 2008
 Lutzomyia alencari Martins, Souza &amp; Falcão, 1962
@@ -750,8 +807,43 @@
 Lutzomyia vexator (Coquillett, 1907)
 Lutzomyia walkeri Newstead, 1914
 Lutzomyia wattsi Fernández, Carbajal, Astete &amp; Wooster, 1998
-autres espèces
-Selon la base EOL[3], d'autres espèces appartiennent à ce genre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lutzomyia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lutzomyia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>autres espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon la base EOL, d'autres espèces appartiennent à ce genre :
 Lutzomyia wellcomei Fraiha, Shaw et Lainson, 1971</t>
         </is>
       </c>
